--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_liskam_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_liskam_1_1.xlsx
@@ -2416,7 +2416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Liskarm"]  I-I’m okay...
+    <t xml:space="preserve">[name="Liskarm"]  I-I'm okay...
 </t>
   </si>
   <si>
